--- a/data/pca/factorExposure/factorExposure_2016-02-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01481361708267558</v>
+        <v>0.01886423441200953</v>
       </c>
       <c r="C2">
-        <v>0.04569678684408515</v>
+        <v>0.03906767294907729</v>
       </c>
       <c r="D2">
-        <v>-0.1150705079146508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1211337016821961</v>
+      </c>
+      <c r="E2">
+        <v>0.09001903359505441</v>
+      </c>
+      <c r="F2">
+        <v>-0.01556055663982788</v>
+      </c>
+      <c r="G2">
+        <v>0.03451452325153664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02522810707852658</v>
+        <v>0.01537554404686287</v>
       </c>
       <c r="C3">
-        <v>0.09137178472226254</v>
+        <v>0.04377159273825229</v>
       </c>
       <c r="D3">
-        <v>-0.12383400230596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07902881848189153</v>
+      </c>
+      <c r="E3">
+        <v>0.1099109170098652</v>
+      </c>
+      <c r="F3">
+        <v>0.03936827965167679</v>
+      </c>
+      <c r="G3">
+        <v>0.08348552624640544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05868883162497442</v>
+        <v>0.0606112535234998</v>
       </c>
       <c r="C4">
-        <v>0.0722021245036179</v>
+        <v>0.06860959131576848</v>
       </c>
       <c r="D4">
-        <v>-0.09393323229591835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.116636612455983</v>
+      </c>
+      <c r="E4">
+        <v>0.08550555739103896</v>
+      </c>
+      <c r="F4">
+        <v>0.01872408325205262</v>
+      </c>
+      <c r="G4">
+        <v>-0.03534183823760671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04388711844628046</v>
+        <v>0.04105931646220141</v>
       </c>
       <c r="C6">
-        <v>0.04057809567719554</v>
+        <v>0.02852596143681252</v>
       </c>
       <c r="D6">
-        <v>-0.1007713883425591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1177171458727826</v>
+      </c>
+      <c r="E6">
+        <v>0.05646791045353237</v>
+      </c>
+      <c r="F6">
+        <v>0.0183457945481181</v>
+      </c>
+      <c r="G6">
+        <v>0.002906496587266112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02897982745729178</v>
+        <v>0.02193014684786627</v>
       </c>
       <c r="C7">
-        <v>0.03717871220178997</v>
+        <v>0.03722449912292897</v>
       </c>
       <c r="D7">
-        <v>-0.07138737695061605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.08463090690734278</v>
+      </c>
+      <c r="E7">
+        <v>0.0584315091099123</v>
+      </c>
+      <c r="F7">
+        <v>0.01954879658815058</v>
+      </c>
+      <c r="G7">
+        <v>-0.05685998091515478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007807876574959029</v>
+        <v>0.007220546913377743</v>
       </c>
       <c r="C8">
-        <v>0.04660330126898833</v>
+        <v>0.03871065380869182</v>
       </c>
       <c r="D8">
-        <v>-0.06397778020321793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07583155743205848</v>
+      </c>
+      <c r="E8">
+        <v>0.04216131140420963</v>
+      </c>
+      <c r="F8">
+        <v>0.01639644080067222</v>
+      </c>
+      <c r="G8">
+        <v>0.007159879119278483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04220522646878386</v>
+        <v>0.04484954429768424</v>
       </c>
       <c r="C9">
-        <v>0.05291212643220687</v>
+        <v>0.05650683643543133</v>
       </c>
       <c r="D9">
-        <v>-0.08361029220690978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1039645327888441</v>
+      </c>
+      <c r="E9">
+        <v>0.0572922813465564</v>
+      </c>
+      <c r="F9">
+        <v>0.003604928958216626</v>
+      </c>
+      <c r="G9">
+        <v>-0.03867509881374057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08713955086476605</v>
+        <v>0.1126824202891885</v>
       </c>
       <c r="C10">
-        <v>-0.1829422063758988</v>
+        <v>-0.1955155022378163</v>
       </c>
       <c r="D10">
-        <v>-0.01699957924212041</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001562329278852108</v>
+      </c>
+      <c r="E10">
+        <v>0.04858863305904804</v>
+      </c>
+      <c r="F10">
+        <v>0.01232987053494301</v>
+      </c>
+      <c r="G10">
+        <v>-0.02740578357124641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04137173028252933</v>
+        <v>0.03477856624494385</v>
       </c>
       <c r="C11">
-        <v>0.05100313594352356</v>
+        <v>0.046442757706217</v>
       </c>
       <c r="D11">
-        <v>-0.05334052766065617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05516533301885673</v>
+      </c>
+      <c r="E11">
+        <v>0.02283744753495196</v>
+      </c>
+      <c r="F11">
+        <v>0.007323464980328515</v>
+      </c>
+      <c r="G11">
+        <v>-0.04296089517832052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04567537902746724</v>
+        <v>0.03778462057974902</v>
       </c>
       <c r="C12">
-        <v>0.04813111359964831</v>
+        <v>0.04587269580919012</v>
       </c>
       <c r="D12">
-        <v>-0.04088463914447913</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05149226228738201</v>
+      </c>
+      <c r="E12">
+        <v>0.03452412191474629</v>
+      </c>
+      <c r="F12">
+        <v>8.001762454093386e-05</v>
+      </c>
+      <c r="G12">
+        <v>-0.03966853264347048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01877099133966486</v>
+        <v>0.01984352379964005</v>
       </c>
       <c r="C13">
-        <v>0.04760545940176313</v>
+        <v>0.03888328460032927</v>
       </c>
       <c r="D13">
-        <v>-0.08971345283718274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.119212469595692</v>
+      </c>
+      <c r="E13">
+        <v>0.09755000190381823</v>
+      </c>
+      <c r="F13">
+        <v>0.02751950990473764</v>
+      </c>
+      <c r="G13">
+        <v>-0.04783672474457664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.0156281523628621</v>
+        <v>0.009588236851966138</v>
       </c>
       <c r="C14">
-        <v>0.03119963858754054</v>
+        <v>0.02752787408574268</v>
       </c>
       <c r="D14">
-        <v>-0.06205308399126361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.07596585996384936</v>
+      </c>
+      <c r="E14">
+        <v>0.05849177286372903</v>
+      </c>
+      <c r="F14">
+        <v>-0.006410432850809586</v>
+      </c>
+      <c r="G14">
+        <v>-0.03893545216452548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0007566677373833887</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006367905387513702</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01968743888268385</v>
+      </c>
+      <c r="E15">
+        <v>0.004993198941369608</v>
+      </c>
+      <c r="F15">
+        <v>-0.001160693928407013</v>
+      </c>
+      <c r="G15">
+        <v>0.001770467347458844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04153310636380573</v>
+        <v>0.03480787033443788</v>
       </c>
       <c r="C16">
-        <v>0.05094748830193757</v>
+        <v>0.04622644930794004</v>
       </c>
       <c r="D16">
-        <v>-0.05119936887595216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05790835181763457</v>
+      </c>
+      <c r="E16">
+        <v>0.03462521904019654</v>
+      </c>
+      <c r="F16">
+        <v>-0.01125362793680828</v>
+      </c>
+      <c r="G16">
+        <v>-0.0343799798434212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01775137715940051</v>
+        <v>0.01372847263664995</v>
       </c>
       <c r="C19">
-        <v>0.05073137243011621</v>
+        <v>0.03557567481132363</v>
       </c>
       <c r="D19">
-        <v>-0.1529643480926496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1306960024942635</v>
+      </c>
+      <c r="E19">
+        <v>0.09198359293762733</v>
+      </c>
+      <c r="F19">
+        <v>-0.02780883451278581</v>
+      </c>
+      <c r="G19">
+        <v>-0.004762719744123039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02124074437610278</v>
+        <v>0.01676001922348896</v>
       </c>
       <c r="C20">
-        <v>0.04680188010073921</v>
+        <v>0.03959818289633444</v>
       </c>
       <c r="D20">
-        <v>-0.07198368382708999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.08478929196331632</v>
+      </c>
+      <c r="E20">
+        <v>0.07418508324256076</v>
+      </c>
+      <c r="F20">
+        <v>-0.002469438904266466</v>
+      </c>
+      <c r="G20">
+        <v>-0.02374147769683605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0179729975245206</v>
+        <v>0.01602995433885502</v>
       </c>
       <c r="C21">
-        <v>0.04857455329022127</v>
+        <v>0.03881444298186953</v>
       </c>
       <c r="D21">
-        <v>-0.09370359412313889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1210807084450657</v>
+      </c>
+      <c r="E21">
+        <v>0.1197638251716982</v>
+      </c>
+      <c r="F21">
+        <v>-0.01466909792309174</v>
+      </c>
+      <c r="G21">
+        <v>-0.07162268946563179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001385524819107135</v>
+        <v>0.005191793721482696</v>
       </c>
       <c r="C22">
-        <v>0.01336572345567072</v>
+        <v>0.03204163940840237</v>
       </c>
       <c r="D22">
-        <v>-0.04369165606093302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1028615615592194</v>
+      </c>
+      <c r="E22">
+        <v>0.04284999834576522</v>
+      </c>
+      <c r="F22">
+        <v>0.06972082891628884</v>
+      </c>
+      <c r="G22">
+        <v>0.05643936803718959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001398661977860012</v>
+        <v>0.005318204339533774</v>
       </c>
       <c r="C23">
-        <v>0.01331525662353722</v>
+        <v>0.03213723695918971</v>
       </c>
       <c r="D23">
-        <v>-0.04348719886590285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1021945156849942</v>
+      </c>
+      <c r="E23">
+        <v>0.0432909675472227</v>
+      </c>
+      <c r="F23">
+        <v>0.06971431661032287</v>
+      </c>
+      <c r="G23">
+        <v>0.05568152500634108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03794262611113668</v>
+        <v>0.03590017929231081</v>
       </c>
       <c r="C24">
-        <v>0.05235285127802049</v>
+        <v>0.05449470400355445</v>
       </c>
       <c r="D24">
-        <v>-0.05295733404026968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06046945165068113</v>
+      </c>
+      <c r="E24">
+        <v>0.0381113837049075</v>
+      </c>
+      <c r="F24">
+        <v>-0.008225727828058639</v>
+      </c>
+      <c r="G24">
+        <v>-0.05127135870049635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04739805663435617</v>
+        <v>0.04148930358175183</v>
       </c>
       <c r="C25">
-        <v>0.05828034681619377</v>
+        <v>0.0545057136880082</v>
       </c>
       <c r="D25">
-        <v>-0.04987492757835739</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05459574158603157</v>
+      </c>
+      <c r="E25">
+        <v>0.03520504096533558</v>
+      </c>
+      <c r="F25">
+        <v>0.007865149221539604</v>
+      </c>
+      <c r="G25">
+        <v>-0.05148234655240674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02383176598225682</v>
+        <v>0.02021874713551331</v>
       </c>
       <c r="C26">
-        <v>0.01543279487008507</v>
+        <v>0.01719677950846262</v>
       </c>
       <c r="D26">
-        <v>-0.05023966410609688</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06349851621132591</v>
+      </c>
+      <c r="E26">
+        <v>0.04104857181681804</v>
+      </c>
+      <c r="F26">
+        <v>-0.006691809386549511</v>
+      </c>
+      <c r="G26">
+        <v>-0.01334054898754352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1146594849609883</v>
+        <v>0.1575459417624504</v>
       </c>
       <c r="C28">
-        <v>-0.2674843609157878</v>
+        <v>-0.2618228365292135</v>
       </c>
       <c r="D28">
-        <v>0.02599886688759521</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01806056127030616</v>
+      </c>
+      <c r="E28">
+        <v>0.08121632710814575</v>
+      </c>
+      <c r="F28">
+        <v>0.009391182111621221</v>
+      </c>
+      <c r="G28">
+        <v>-0.07301026090450546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01054241159879768</v>
+        <v>0.009137012706212935</v>
       </c>
       <c r="C29">
-        <v>0.02864894166991888</v>
+        <v>0.0251635011442973</v>
       </c>
       <c r="D29">
-        <v>-0.04593694098504419</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.06834737100478612</v>
+      </c>
+      <c r="E29">
+        <v>0.06165694328919082</v>
+      </c>
+      <c r="F29">
+        <v>0.005435703621983328</v>
+      </c>
+      <c r="G29">
+        <v>-0.04749660859883265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03861160654121341</v>
+        <v>0.04089943281389766</v>
       </c>
       <c r="C30">
-        <v>0.03823528509117539</v>
+        <v>0.0526102575828536</v>
       </c>
       <c r="D30">
-        <v>-0.1431457298708684</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.164854268606798</v>
+      </c>
+      <c r="E30">
+        <v>0.05402018824751471</v>
+      </c>
+      <c r="F30">
+        <v>-0.006134943042752273</v>
+      </c>
+      <c r="G30">
+        <v>0.01792442929425457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06824222653585094</v>
+        <v>0.06334133786517093</v>
       </c>
       <c r="C31">
-        <v>0.06442368004731402</v>
+        <v>0.07162440039301256</v>
       </c>
       <c r="D31">
-        <v>-0.03245980133811096</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04159017255087278</v>
+      </c>
+      <c r="E31">
+        <v>0.06547939033233711</v>
+      </c>
+      <c r="F31">
+        <v>0.03799948666136456</v>
+      </c>
+      <c r="G31">
+        <v>-0.03085883719493175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0005643280512799693</v>
+        <v>0.008299546618776214</v>
       </c>
       <c r="C32">
-        <v>0.01377975259838223</v>
+        <v>0.02136294707467891</v>
       </c>
       <c r="D32">
-        <v>-0.05593536471562004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.07996177729638791</v>
+      </c>
+      <c r="E32">
+        <v>0.1039069811539186</v>
+      </c>
+      <c r="F32">
+        <v>-0.009461969270214862</v>
+      </c>
+      <c r="G32">
+        <v>-0.06809583535389817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0310169483402154</v>
+        <v>0.02667936219995623</v>
       </c>
       <c r="C33">
-        <v>0.04845957515892912</v>
+        <v>0.04612823177945095</v>
       </c>
       <c r="D33">
-        <v>-0.1099825651647975</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1215165190177083</v>
+      </c>
+      <c r="E33">
+        <v>0.07582229711134088</v>
+      </c>
+      <c r="F33">
+        <v>0.01546407558333721</v>
+      </c>
+      <c r="G33">
+        <v>-0.04402713995318351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04197350125014229</v>
+        <v>0.03666958310009726</v>
       </c>
       <c r="C34">
-        <v>0.06262849709973578</v>
+        <v>0.06177736883723135</v>
       </c>
       <c r="D34">
-        <v>-0.0567371318665371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05732635644398221</v>
+      </c>
+      <c r="E34">
+        <v>0.01699625694981379</v>
+      </c>
+      <c r="F34">
+        <v>-0.003753533359530181</v>
+      </c>
+      <c r="G34">
+        <v>-0.05700651242017353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0002711842750143187</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0001090032274087663</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.001618706525523639</v>
+      </c>
+      <c r="E35">
+        <v>-5.723766831718538e-05</v>
+      </c>
+      <c r="F35">
+        <v>-9.566394678831765e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.000507270738377652</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02318744696041638</v>
+        <v>0.01909547219984037</v>
       </c>
       <c r="C36">
-        <v>0.02228869207185524</v>
+        <v>0.017285009689588</v>
       </c>
       <c r="D36">
-        <v>-0.04981298772210899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.06814067348008891</v>
+      </c>
+      <c r="E36">
+        <v>0.05769212540846139</v>
+      </c>
+      <c r="F36">
+        <v>-0.001771428409997542</v>
+      </c>
+      <c r="G36">
+        <v>-0.03372343773821636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0341517733806689</v>
+        <v>0.02532358908867563</v>
       </c>
       <c r="C38">
-        <v>0.03759765688994673</v>
+        <v>0.02595414084051239</v>
       </c>
       <c r="D38">
-        <v>-0.02937271939582642</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.05409132916268011</v>
+      </c>
+      <c r="E38">
+        <v>0.04656579340684158</v>
+      </c>
+      <c r="F38">
+        <v>-0.0003323781560368377</v>
+      </c>
+      <c r="G38">
+        <v>0.01253113386938176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04664541320437112</v>
+        <v>0.04168383921657064</v>
       </c>
       <c r="C39">
-        <v>0.06084317554958884</v>
+        <v>0.06221265453484602</v>
       </c>
       <c r="D39">
-        <v>-0.07387110479964068</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.09299369841324233</v>
+      </c>
+      <c r="E39">
+        <v>0.03263501927790666</v>
+      </c>
+      <c r="F39">
+        <v>-0.02471558219173482</v>
+      </c>
+      <c r="G39">
+        <v>-0.03813578108160833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01101876066000375</v>
+        <v>0.01480488358198606</v>
       </c>
       <c r="C40">
-        <v>0.05665821638115032</v>
+        <v>0.04041060071083818</v>
       </c>
       <c r="D40">
-        <v>-0.0678819610173572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08451899557196051</v>
+      </c>
+      <c r="E40">
+        <v>0.09797070204512152</v>
+      </c>
+      <c r="F40">
+        <v>0.0397404693315281</v>
+      </c>
+      <c r="G40">
+        <v>-0.02515806318194333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02704463161252639</v>
+        <v>0.02238303812149363</v>
       </c>
       <c r="C41">
-        <v>0.01346132258200172</v>
+        <v>0.01056973165192205</v>
       </c>
       <c r="D41">
-        <v>-0.05110559129828717</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.04977334092847065</v>
+      </c>
+      <c r="E41">
+        <v>0.07019863743285717</v>
+      </c>
+      <c r="F41">
+        <v>-0.0003631190251587287</v>
+      </c>
+      <c r="G41">
+        <v>-0.0228845279772669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04254898221728037</v>
+        <v>0.02878821345867462</v>
       </c>
       <c r="C43">
-        <v>0.03288324420477776</v>
+        <v>0.02299026816897849</v>
       </c>
       <c r="D43">
-        <v>-0.08594643060361183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0822578346002682</v>
+      </c>
+      <c r="E43">
+        <v>0.06758456963262939</v>
+      </c>
+      <c r="F43">
+        <v>0.01140822938281819</v>
+      </c>
+      <c r="G43">
+        <v>-0.03559115640973593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0164755907533797</v>
+        <v>0.01887523631207135</v>
       </c>
       <c r="C44">
-        <v>0.06001179454678997</v>
+        <v>0.04383970217715879</v>
       </c>
       <c r="D44">
-        <v>-0.05651080914388701</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08340472121127773</v>
+      </c>
+      <c r="E44">
+        <v>0.08277909235221415</v>
+      </c>
+      <c r="F44">
+        <v>-0.01460650920084584</v>
+      </c>
+      <c r="G44">
+        <v>-0.03508957013819811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01887069606075087</v>
+        <v>0.01652968702143155</v>
       </c>
       <c r="C46">
-        <v>0.03150337812326331</v>
+        <v>0.03131620063222622</v>
       </c>
       <c r="D46">
-        <v>-0.04653181612491213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0676132059107413</v>
+      </c>
+      <c r="E46">
+        <v>0.06624501834097012</v>
+      </c>
+      <c r="F46">
+        <v>-0.01332152637216441</v>
+      </c>
+      <c r="G46">
+        <v>-0.06451916954611242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09639978719036725</v>
+        <v>0.09517544383820983</v>
       </c>
       <c r="C47">
-        <v>0.08359274479858272</v>
+        <v>0.08803427183554868</v>
       </c>
       <c r="D47">
-        <v>-0.009660336281172155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02207456784671213</v>
+      </c>
+      <c r="E47">
+        <v>0.05394776297773379</v>
+      </c>
+      <c r="F47">
+        <v>0.0279716702618177</v>
+      </c>
+      <c r="G47">
+        <v>-0.05956718646195863</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02776724364178643</v>
+        <v>0.02235499249797642</v>
       </c>
       <c r="C48">
-        <v>0.02437859529287169</v>
+        <v>0.0217845530427392</v>
       </c>
       <c r="D48">
-        <v>-0.04330273823611996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.06517478592931553</v>
+      </c>
+      <c r="E48">
+        <v>0.06984206576930917</v>
+      </c>
+      <c r="F48">
+        <v>-0.01203297910602047</v>
+      </c>
+      <c r="G48">
+        <v>-0.0404660787672206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08846952296709236</v>
+        <v>0.07482034101171571</v>
       </c>
       <c r="C50">
-        <v>0.09922227271230419</v>
+        <v>0.07912412699873793</v>
       </c>
       <c r="D50">
-        <v>-0.02899592827365823</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0491576917853974</v>
+      </c>
+      <c r="E50">
+        <v>0.07172666168785727</v>
+      </c>
+      <c r="F50">
+        <v>0.04516504157085031</v>
+      </c>
+      <c r="G50">
+        <v>-0.01519109922039249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01434780855452017</v>
+        <v>0.01215894565122161</v>
       </c>
       <c r="C51">
-        <v>0.03801090095162454</v>
+        <v>0.02317863316905218</v>
       </c>
       <c r="D51">
-        <v>-0.09122694305898894</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08937895976310078</v>
+      </c>
+      <c r="E51">
+        <v>0.04699174768750392</v>
+      </c>
+      <c r="F51">
+        <v>-0.008241126548108187</v>
+      </c>
+      <c r="G51">
+        <v>-0.01839122004090527</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08302602764307447</v>
+        <v>0.09781160707307071</v>
       </c>
       <c r="C53">
-        <v>0.09291934349121776</v>
+        <v>0.09642774667326692</v>
       </c>
       <c r="D53">
-        <v>0.01538178327040697</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01450086552211496</v>
+      </c>
+      <c r="E53">
+        <v>0.101816659756695</v>
+      </c>
+      <c r="F53">
+        <v>0.01634942426393544</v>
+      </c>
+      <c r="G53">
+        <v>-0.07596114040423559</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.04066245568413315</v>
+        <v>0.0312740412179003</v>
       </c>
       <c r="C54">
-        <v>0.04135467383555508</v>
+        <v>0.03610592512786105</v>
       </c>
       <c r="D54">
-        <v>-0.05923529524036126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.07794924321015975</v>
+      </c>
+      <c r="E54">
+        <v>0.0683121203630665</v>
+      </c>
+      <c r="F54">
+        <v>-0.01652367661676282</v>
+      </c>
+      <c r="G54">
+        <v>-0.04220791728584916</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08709420851885755</v>
+        <v>0.09406562802653115</v>
       </c>
       <c r="C55">
-        <v>0.07265522568340618</v>
+        <v>0.07906119922875711</v>
       </c>
       <c r="D55">
-        <v>0.02381522975319094</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02226589813910875</v>
+      </c>
+      <c r="E55">
+        <v>0.06647959204241136</v>
+      </c>
+      <c r="F55">
+        <v>0.02455342351089818</v>
+      </c>
+      <c r="G55">
+        <v>-0.03256041340707977</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.148561498412084</v>
+        <v>0.1523695625321645</v>
       </c>
       <c r="C56">
-        <v>0.09836420690754391</v>
+        <v>0.1123885268112774</v>
       </c>
       <c r="D56">
-        <v>0.02498150597353853</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02604101341516983</v>
+      </c>
+      <c r="E56">
+        <v>0.05130347953025983</v>
+      </c>
+      <c r="F56">
+        <v>0.02258111371747084</v>
+      </c>
+      <c r="G56">
+        <v>-0.04182569431608851</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04346290931895468</v>
+        <v>0.03631523752292291</v>
       </c>
       <c r="C58">
-        <v>-0.01339182989427049</v>
+        <v>0.008996720329530691</v>
       </c>
       <c r="D58">
-        <v>-0.4100603180595825</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3694655684802288</v>
+      </c>
+      <c r="E58">
+        <v>0.2349097434381751</v>
+      </c>
+      <c r="F58">
+        <v>0.09764285216701425</v>
+      </c>
+      <c r="G58">
+        <v>0.517511032002074</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1366527060122928</v>
+        <v>0.1529369547854948</v>
       </c>
       <c r="C59">
-        <v>-0.2031413306524062</v>
+        <v>-0.1888748189335888</v>
       </c>
       <c r="D59">
-        <v>-0.0363332741262653</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04501242918699788</v>
+      </c>
+      <c r="E59">
+        <v>0.01222711095736172</v>
+      </c>
+      <c r="F59">
+        <v>-0.02783450509765429</v>
+      </c>
+      <c r="G59">
+        <v>0.01789207018600501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2533711573930772</v>
+        <v>0.2358620252700602</v>
       </c>
       <c r="C60">
-        <v>0.07436058303608296</v>
+        <v>0.07888359010359393</v>
       </c>
       <c r="D60">
-        <v>-0.1484201628520376</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1509843923667343</v>
+      </c>
+      <c r="E60">
+        <v>-0.3285575049306362</v>
+      </c>
+      <c r="F60">
+        <v>0.1412555100451346</v>
+      </c>
+      <c r="G60">
+        <v>0.02345766544858735</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04963258043946987</v>
+        <v>0.04459384730022625</v>
       </c>
       <c r="C61">
-        <v>0.05528985846346719</v>
+        <v>0.05497008962494285</v>
       </c>
       <c r="D61">
-        <v>-0.07959090605275315</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08307496907326284</v>
+      </c>
+      <c r="E61">
+        <v>0.03463644759622035</v>
+      </c>
+      <c r="F61">
+        <v>-0.003945850177755078</v>
+      </c>
+      <c r="G61">
+        <v>-0.05002381933504618</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01786847924310225</v>
+        <v>0.01760708893698415</v>
       </c>
       <c r="C63">
-        <v>0.02943812089678812</v>
+        <v>0.02869271004807586</v>
       </c>
       <c r="D63">
-        <v>-0.0322425352234537</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05892480660687759</v>
+      </c>
+      <c r="E63">
+        <v>0.06686393281661196</v>
+      </c>
+      <c r="F63">
+        <v>0.02053710742115653</v>
+      </c>
+      <c r="G63">
+        <v>-0.02310951299198822</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05475369520382847</v>
+        <v>0.05760403964391116</v>
       </c>
       <c r="C64">
-        <v>0.05709238657541999</v>
+        <v>0.06860364250925607</v>
       </c>
       <c r="D64">
-        <v>-0.04881527050692392</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04620510246980818</v>
+      </c>
+      <c r="E64">
+        <v>0.04547859484978732</v>
+      </c>
+      <c r="F64">
+        <v>-0.02833107739695547</v>
+      </c>
+      <c r="G64">
+        <v>-0.07590009620009258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07021694259330995</v>
+        <v>0.05864674961814004</v>
       </c>
       <c r="C65">
-        <v>0.02559508804108666</v>
+        <v>0.0230815170605657</v>
       </c>
       <c r="D65">
-        <v>-0.09836310145784194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1175597982157369</v>
+      </c>
+      <c r="E65">
+        <v>0.017580220522108</v>
+      </c>
+      <c r="F65">
+        <v>0.02748826634813423</v>
+      </c>
+      <c r="G65">
+        <v>0.03683183849543569</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05494174426069217</v>
+        <v>0.05018776199786736</v>
       </c>
       <c r="C66">
-        <v>0.06811359823791291</v>
+        <v>0.06998543310884954</v>
       </c>
       <c r="D66">
-        <v>-0.09702182589582294</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1151482509678836</v>
+      </c>
+      <c r="E66">
+        <v>0.04012838816711528</v>
+      </c>
+      <c r="F66">
+        <v>-0.006434533954159158</v>
+      </c>
+      <c r="G66">
+        <v>-0.03013854573891625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05594395469691399</v>
+        <v>0.04502411378795994</v>
       </c>
       <c r="C67">
-        <v>0.03774859512253238</v>
+        <v>0.02894768564542002</v>
       </c>
       <c r="D67">
-        <v>-0.006618142671194619</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02149522591454335</v>
+      </c>
+      <c r="E67">
+        <v>0.02570243826829168</v>
+      </c>
+      <c r="F67">
+        <v>0.004347552005530812</v>
+      </c>
+      <c r="G67">
+        <v>0.005752399163735328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1459876324323675</v>
+        <v>0.163860798649819</v>
       </c>
       <c r="C68">
-        <v>-0.2852506966789473</v>
+        <v>-0.2395419470627185</v>
       </c>
       <c r="D68">
-        <v>0.03064745034274292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.00399261144239516</v>
+      </c>
+      <c r="E68">
+        <v>0.05412606999329399</v>
+      </c>
+      <c r="F68">
+        <v>0.02676095767415292</v>
+      </c>
+      <c r="G68">
+        <v>0.01209209640438668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0965607865795358</v>
+        <v>0.08976036274572155</v>
       </c>
       <c r="C69">
-        <v>0.09249559896131976</v>
+        <v>0.09951851864857107</v>
       </c>
       <c r="D69">
-        <v>-0.01260516632108995</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.03550948925960282</v>
+      </c>
+      <c r="E69">
+        <v>0.05099441557499435</v>
+      </c>
+      <c r="F69">
+        <v>0.004249850479863674</v>
+      </c>
+      <c r="G69">
+        <v>-0.05653482763647386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1315765142319332</v>
+        <v>0.1565324397283215</v>
       </c>
       <c r="C71">
-        <v>-0.2500809366543324</v>
+        <v>-0.2346260586459971</v>
       </c>
       <c r="D71">
-        <v>-0.02926153956407325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02700371149779213</v>
+      </c>
+      <c r="E71">
+        <v>0.06205397762939648</v>
+      </c>
+      <c r="F71">
+        <v>0.0282060933100311</v>
+      </c>
+      <c r="G71">
+        <v>-0.04976016300969195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09629580743765609</v>
+        <v>0.1028280602130654</v>
       </c>
       <c r="C72">
-        <v>0.05463341341938425</v>
+        <v>0.0541418447583683</v>
       </c>
       <c r="D72">
-        <v>-0.06606702298453876</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08080752917735429</v>
+      </c>
+      <c r="E72">
+        <v>-0.0022389282584514</v>
+      </c>
+      <c r="F72">
+        <v>0.03429952104313012</v>
+      </c>
+      <c r="G72">
+        <v>-0.05736631068537305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3149946436796975</v>
+        <v>0.2775116096013413</v>
       </c>
       <c r="C73">
-        <v>-0.003653811266560726</v>
+        <v>0.03789119777855991</v>
       </c>
       <c r="D73">
-        <v>-0.3194420238471382</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2749235961723647</v>
+      </c>
+      <c r="E73">
+        <v>-0.6383391576143562</v>
+      </c>
+      <c r="F73">
+        <v>0.1699479206250047</v>
+      </c>
+      <c r="G73">
+        <v>0.07067722454804098</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1048429580919026</v>
+        <v>0.1095963541661404</v>
       </c>
       <c r="C74">
-        <v>0.09177814904606096</v>
+        <v>0.0915011713163333</v>
       </c>
       <c r="D74">
-        <v>0.0007911493772826972</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01826337706384507</v>
+      </c>
+      <c r="E74">
+        <v>0.07807806058871827</v>
+      </c>
+      <c r="F74">
+        <v>0.0468070679892643</v>
+      </c>
+      <c r="G74">
+        <v>-0.02805930251309244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2585370847462871</v>
+        <v>0.2580652998254373</v>
       </c>
       <c r="C75">
-        <v>0.1173779275368892</v>
+        <v>0.1398545007311999</v>
       </c>
       <c r="D75">
-        <v>0.1236343277462722</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.131267906189022</v>
+      </c>
+      <c r="E75">
+        <v>0.05227961214457931</v>
+      </c>
+      <c r="F75">
+        <v>-0.01085151494662502</v>
+      </c>
+      <c r="G75">
+        <v>-0.02267898861162067</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1162392617818556</v>
+        <v>0.1298378474234801</v>
       </c>
       <c r="C76">
-        <v>0.0935533845910001</v>
+        <v>0.09995768010081618</v>
       </c>
       <c r="D76">
-        <v>0.02903082020299151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03045663482329747</v>
+      </c>
+      <c r="E76">
+        <v>0.1059265756912703</v>
+      </c>
+      <c r="F76">
+        <v>0.0002796632965055554</v>
+      </c>
+      <c r="G76">
+        <v>-0.04368398514348677</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08589201172994103</v>
+        <v>0.06904005398685571</v>
       </c>
       <c r="C77">
-        <v>0.02943392489615416</v>
+        <v>0.05683200904664413</v>
       </c>
       <c r="D77">
-        <v>-0.09501604915728591</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1223393549486455</v>
+      </c>
+      <c r="E77">
+        <v>0.08180199384237839</v>
+      </c>
+      <c r="F77">
+        <v>-0.2725882691245539</v>
+      </c>
+      <c r="G77">
+        <v>0.1612250095806943</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04313268026527561</v>
+        <v>0.04574131579713055</v>
       </c>
       <c r="C78">
-        <v>0.0423141169196839</v>
+        <v>0.0561365490652952</v>
       </c>
       <c r="D78">
-        <v>-0.09789058271418223</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1236880507315614</v>
+      </c>
+      <c r="E78">
+        <v>0.03707950699106234</v>
+      </c>
+      <c r="F78">
+        <v>0.0003131635094619673</v>
+      </c>
+      <c r="G78">
+        <v>-0.03705963644660981</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.002996880908855576</v>
+        <v>0.03961314191491621</v>
       </c>
       <c r="C79">
-        <v>-0.001654924970033985</v>
+        <v>0.06466084597018976</v>
       </c>
       <c r="D79">
-        <v>-0.01382430380309859</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0585571911750789</v>
+      </c>
+      <c r="E79">
+        <v>0.1218271582185174</v>
+      </c>
+      <c r="F79">
+        <v>0.03798926970639551</v>
+      </c>
+      <c r="G79">
+        <v>-0.2786682199503267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03350773783648388</v>
+        <v>0.02788962029104191</v>
       </c>
       <c r="C80">
-        <v>0.03908283420442863</v>
+        <v>0.04157498888002202</v>
       </c>
       <c r="D80">
-        <v>-0.03474245628755568</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03880487188875081</v>
+      </c>
+      <c r="E80">
+        <v>0.01020688566856755</v>
+      </c>
+      <c r="F80">
+        <v>-0.05036232412278998</v>
+      </c>
+      <c r="G80">
+        <v>0.003848203275682528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1525881673039194</v>
+        <v>0.1439533353408002</v>
       </c>
       <c r="C81">
-        <v>0.1033878741088689</v>
+        <v>0.1091249747690584</v>
       </c>
       <c r="D81">
-        <v>0.07894328531857117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.08590496765487284</v>
+      </c>
+      <c r="E81">
+        <v>0.1000452941770747</v>
+      </c>
+      <c r="F81">
+        <v>-0.003993892044726177</v>
+      </c>
+      <c r="G81">
+        <v>-0.03763883346808367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2381718035232796</v>
+        <v>0.2484003137239507</v>
       </c>
       <c r="C82">
-        <v>0.1573067832674178</v>
+        <v>0.2019353692810709</v>
       </c>
       <c r="D82">
-        <v>0.1699114855515029</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2218375714209118</v>
+      </c>
+      <c r="E82">
+        <v>-0.06370867489800909</v>
+      </c>
+      <c r="F82">
+        <v>-0.03116204350057648</v>
+      </c>
+      <c r="G82">
+        <v>-0.3681920656594873</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04166354928780253</v>
+        <v>0.02787615072666204</v>
       </c>
       <c r="C83">
-        <v>0.04126120466876863</v>
+        <v>0.04802161006781366</v>
       </c>
       <c r="D83">
-        <v>-0.07317613087727221</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05295083576358814</v>
+      </c>
+      <c r="E83">
+        <v>0.009362888075112281</v>
+      </c>
+      <c r="F83">
+        <v>-0.0204484039326046</v>
+      </c>
+      <c r="G83">
+        <v>0.001932083365755197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>7.732308994619642e-06</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.00260411910013325</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.003550453968738296</v>
+      </c>
+      <c r="E84">
+        <v>0.008823780264979625</v>
+      </c>
+      <c r="F84">
+        <v>0.001925848130977919</v>
+      </c>
+      <c r="G84">
+        <v>0.00557476092072823</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2008834838118309</v>
+        <v>0.1868859745250488</v>
       </c>
       <c r="C85">
-        <v>0.09782108885189397</v>
+        <v>0.1139334773561753</v>
       </c>
       <c r="D85">
-        <v>0.108740229835298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1044585567894046</v>
+      </c>
+      <c r="E85">
+        <v>0.02722972431095471</v>
+      </c>
+      <c r="F85">
+        <v>0.04142842121684451</v>
+      </c>
+      <c r="G85">
+        <v>-0.07780115313226987</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01409064673203927</v>
+        <v>0.01808745388842246</v>
       </c>
       <c r="C86">
-        <v>0.02199159712128979</v>
+        <v>0.01196354490021294</v>
       </c>
       <c r="D86">
-        <v>-0.1312053971611564</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1166090122568346</v>
+      </c>
+      <c r="E86">
+        <v>0.03822520214974229</v>
+      </c>
+      <c r="F86">
+        <v>-0.007387398360599599</v>
+      </c>
+      <c r="G86">
+        <v>-0.04493356782673939</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03485931744249392</v>
+        <v>0.03503599614086925</v>
       </c>
       <c r="C87">
-        <v>-0.007538488028468408</v>
+        <v>0.01318399300951236</v>
       </c>
       <c r="D87">
-        <v>-0.1287142979730836</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.143159715110927</v>
+      </c>
+      <c r="E87">
+        <v>0.08816662941871503</v>
+      </c>
+      <c r="F87">
+        <v>-0.05793450022313238</v>
+      </c>
+      <c r="G87">
+        <v>0.03058752766568729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1025188240970077</v>
+        <v>0.08680929359869841</v>
       </c>
       <c r="C88">
-        <v>0.08783984480242571</v>
+        <v>0.06862535245541319</v>
       </c>
       <c r="D88">
-        <v>-0.02425799598007268</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02732152255744369</v>
+      </c>
+      <c r="E88">
+        <v>0.05713980064804085</v>
+      </c>
+      <c r="F88">
+        <v>0.003802808645912726</v>
+      </c>
+      <c r="G88">
+        <v>-0.04350077801364868</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2048135349047588</v>
+        <v>0.2353082982410577</v>
       </c>
       <c r="C89">
-        <v>-0.3625858850596237</v>
+        <v>-0.370155238087584</v>
       </c>
       <c r="D89">
-        <v>0.03928891813217462</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.008341013804281537</v>
+      </c>
+      <c r="E89">
+        <v>0.08788126820523283</v>
+      </c>
+      <c r="F89">
+        <v>-0.06474979917711342</v>
+      </c>
+      <c r="G89">
+        <v>-0.04044616645819182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1928190336037295</v>
+        <v>0.2111320394165329</v>
       </c>
       <c r="C90">
-        <v>-0.3003347769518318</v>
+        <v>-0.2868172677454253</v>
       </c>
       <c r="D90">
-        <v>0.02692704817202073</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.006679654430536534</v>
+      </c>
+      <c r="E90">
+        <v>0.06519136203065114</v>
+      </c>
+      <c r="F90">
+        <v>3.024186151055362e-05</v>
+      </c>
+      <c r="G90">
+        <v>0.01038481721168847</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1958541227876586</v>
+        <v>0.1877459447515003</v>
       </c>
       <c r="C91">
-        <v>0.159869894030923</v>
+        <v>0.161355133976048</v>
       </c>
       <c r="D91">
-        <v>0.07704534605444087</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08711250799990174</v>
+      </c>
+      <c r="E91">
+        <v>0.07592523302050959</v>
+      </c>
+      <c r="F91">
+        <v>0.00820688362209311</v>
+      </c>
+      <c r="G91">
+        <v>-0.03202733691042287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1774185462553358</v>
+        <v>0.1924030199438798</v>
       </c>
       <c r="C92">
-        <v>-0.2656503976939638</v>
+        <v>-0.2837201000420101</v>
       </c>
       <c r="D92">
-        <v>-0.01275311215262924</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003197411135102582</v>
+      </c>
+      <c r="E92">
+        <v>0.08444122113488967</v>
+      </c>
+      <c r="F92">
+        <v>-0.04424630152411016</v>
+      </c>
+      <c r="G92">
+        <v>-0.0386339639718888</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2187434906396619</v>
+        <v>0.2330226350731476</v>
       </c>
       <c r="C93">
-        <v>-0.3184295106129114</v>
+        <v>-0.3045192411062382</v>
       </c>
       <c r="D93">
-        <v>0.01634514326087032</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.009487669862553097</v>
+      </c>
+      <c r="E93">
+        <v>0.04204647180437965</v>
+      </c>
+      <c r="F93">
+        <v>0.02864139197009896</v>
+      </c>
+      <c r="G93">
+        <v>-0.02949604973784037</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3756155271193765</v>
+        <v>0.3538366763971333</v>
       </c>
       <c r="C94">
-        <v>0.2018209288430326</v>
+        <v>0.2169701279992008</v>
       </c>
       <c r="D94">
-        <v>0.4994748232833854</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4381938016144514</v>
+      </c>
+      <c r="E94">
+        <v>0.06961555938093894</v>
+      </c>
+      <c r="F94">
+        <v>-0.08466837033181317</v>
+      </c>
+      <c r="G94">
+        <v>0.5941190523985208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.09567353115476607</v>
+        <v>0.07242480160657967</v>
       </c>
       <c r="C95">
-        <v>-0.02754426462167015</v>
+        <v>0.02733424763841149</v>
       </c>
       <c r="D95">
-        <v>-0.1856111169556041</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1578749829209962</v>
+      </c>
+      <c r="E95">
+        <v>-0.1859998468872845</v>
+      </c>
+      <c r="F95">
+        <v>-0.8924046526378697</v>
+      </c>
+      <c r="G95">
+        <v>-0.03018902159684903</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1737751475970081</v>
+        <v>0.1730225952024163</v>
       </c>
       <c r="C98">
-        <v>0.009322063960046508</v>
+        <v>0.04001673630022691</v>
       </c>
       <c r="D98">
-        <v>-0.1818220541305537</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1635737366138482</v>
+      </c>
+      <c r="E98">
+        <v>-0.2580875859490032</v>
+      </c>
+      <c r="F98">
+        <v>0.1144924602626942</v>
+      </c>
+      <c r="G98">
+        <v>-0.007288084788865209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.0104060978409663</v>
+        <v>0.009253921974928877</v>
       </c>
       <c r="C101">
-        <v>0.0279837356941691</v>
+        <v>0.02426077261128345</v>
       </c>
       <c r="D101">
-        <v>-0.04581607844837268</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0682808568886399</v>
+      </c>
+      <c r="E101">
+        <v>0.06256155781721977</v>
+      </c>
+      <c r="F101">
+        <v>0.004370303746987253</v>
+      </c>
+      <c r="G101">
+        <v>-0.04808515283026906</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1235814364040065</v>
+        <v>0.1221006040995115</v>
       </c>
       <c r="C102">
-        <v>0.0835731154755596</v>
+        <v>0.1100270325633278</v>
       </c>
       <c r="D102">
-        <v>0.03309348480915879</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04754001533286899</v>
+      </c>
+      <c r="E102">
+        <v>0.007077071876853099</v>
+      </c>
+      <c r="F102">
+        <v>-0.02683015796966558</v>
+      </c>
+      <c r="G102">
+        <v>-0.04874862171299621</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
